--- a/DMSNewVSale_2025-11-23_19-13.xlsx
+++ b/DMSNewVSale_2025-11-23_19-13.xlsx
@@ -542,6 +542,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -590,6 +602,9 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PIOMPRIDE 4/30 MG 30 TAB.</t>
   </si>
   <si>
@@ -702,9 +717,6 @@
   </si>
   <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
   </si>
   <si>
     <t>84.00</t>
@@ -3215,7 +3227,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3225,14 +3237,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3241,14 +3253,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3258,14 +3270,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3274,14 +3286,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3298,7 +3310,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3331,7 +3343,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3347,7 +3359,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3357,11 +3369,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>27</v>
@@ -3373,14 +3385,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3390,14 +3402,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3406,14 +3418,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3423,11 +3435,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>15</v>
@@ -3439,7 +3451,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3456,11 +3468,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>15</v>
@@ -3472,14 +3484,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3489,14 +3501,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,11 +3534,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3538,14 +3550,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3555,14 +3567,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3571,7 +3583,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3588,11 +3600,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3604,14 +3616,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3621,14 +3633,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3637,31 +3649,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3670,14 +3682,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3687,11 +3699,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>105</v>
@@ -3703,31 +3715,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3736,14 +3748,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3753,11 +3765,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>105</v>
@@ -3769,14 +3781,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3786,14 +3798,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,14 +3814,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3819,14 +3831,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3842,7 +3854,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3852,11 +3864,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>15</v>
@@ -3868,14 +3880,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3885,14 +3897,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>168</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,28 +3913,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
@@ -3934,31 +3946,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>241</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3967,14 +3979,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3984,11 +3996,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>15</v>
@@ -4000,14 +4012,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4017,14 +4029,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4033,7 +4045,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4050,11 +4062,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>15</v>
@@ -4066,14 +4078,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4083,11 +4095,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4106,7 +4118,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4120,10 +4132,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>111</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4132,14 +4144,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4149,14 +4161,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>257</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4165,7 +4177,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4182,14 +4194,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>231</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4198,14 +4210,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>229</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4231,7 +4243,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4248,14 +4260,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>15</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4297,14 +4309,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4314,14 +4326,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4330,14 +4342,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4347,51 +4359,117 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="95" ht="25.5" customHeight="1">
-      <c r="N95" s="13">
-        <v>7817.625</v>
-      </c>
-      <c r="O95" s="13"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>268</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>269</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>270</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>109</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>129</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>35</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>271</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>178</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>129</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>254</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" ht="26.25" customHeight="1">
+      <c r="N97" s="13">
+        <v>7859.625</v>
+      </c>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>272</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>273</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>274</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4840,10 +4918,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="N97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
